--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H2">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>896.083859949941</v>
+        <v>1076.68436694487</v>
       </c>
       <c r="R2">
-        <v>8064.754739549468</v>
+        <v>9690.159302503833</v>
       </c>
       <c r="S2">
-        <v>0.009885359136373027</v>
+        <v>0.01018398049561826</v>
       </c>
       <c r="T2">
-        <v>0.009885359136373027</v>
+        <v>0.01018398049561826</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H3">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>4028.584483629831</v>
+        <v>3955.508544193112</v>
       </c>
       <c r="R3">
-        <v>36257.26035266848</v>
+        <v>35599.57689773801</v>
       </c>
       <c r="S3">
-        <v>0.04444227400114706</v>
+        <v>0.03741377055433426</v>
       </c>
       <c r="T3">
-        <v>0.04444227400114706</v>
+        <v>0.03741377055433426</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H4">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>4448.178845394223</v>
+        <v>3796.735879898021</v>
       </c>
       <c r="R4">
-        <v>40033.60960854801</v>
+        <v>34170.62291908219</v>
       </c>
       <c r="S4">
-        <v>0.04907112755272197</v>
+        <v>0.0359119955067345</v>
       </c>
       <c r="T4">
-        <v>0.04907112755272198</v>
+        <v>0.0359119955067345</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H5">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>709.4667673607322</v>
+        <v>692.4331950559879</v>
       </c>
       <c r="R5">
-        <v>6385.20090624659</v>
+        <v>6231.898755503891</v>
       </c>
       <c r="S5">
-        <v>0.007826648937828482</v>
+        <v>0.006549483181387998</v>
       </c>
       <c r="T5">
-        <v>0.007826648937828482</v>
+        <v>0.006549483181387998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H6">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>3962.53851551977</v>
+        <v>3462.713361598419</v>
       </c>
       <c r="R6">
-        <v>35662.84663967793</v>
+        <v>31164.42025438577</v>
       </c>
       <c r="S6">
-        <v>0.0437136724232614</v>
+        <v>0.03275259344249461</v>
       </c>
       <c r="T6">
-        <v>0.04371367242326141</v>
+        <v>0.03275259344249461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J7">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>342.9372898897587</v>
+        <v>419.6667991640227</v>
       </c>
       <c r="R7">
-        <v>3086.435609007828</v>
+        <v>3777.001192476204</v>
       </c>
       <c r="S7">
-        <v>0.003783193095347254</v>
+        <v>0.003969481334137163</v>
       </c>
       <c r="T7">
-        <v>0.003783193095347253</v>
+        <v>0.003969481334137163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J8">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
         <v>1541.766241593869</v>
@@ -948,10 +948,10 @@
         <v>13875.89617434482</v>
       </c>
       <c r="S8">
-        <v>0.01700835567258502</v>
+        <v>0.01458302712961985</v>
       </c>
       <c r="T8">
-        <v>0.01700835567258501</v>
+        <v>0.01458302712961985</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J9">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>1702.347811810458</v>
+        <v>1479.880309314073</v>
       </c>
       <c r="R9">
-        <v>15321.13030629412</v>
+        <v>13318.92278382666</v>
       </c>
       <c r="S9">
-        <v>0.01877984890354486</v>
+        <v>0.0139976697615372</v>
       </c>
       <c r="T9">
-        <v>0.01877984890354486</v>
+        <v>0.0139976697615372</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J10">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>271.5176796947658</v>
+        <v>269.894531327344</v>
       </c>
       <c r="R10">
-        <v>2443.659117252892</v>
+        <v>2429.050781946096</v>
       </c>
       <c r="S10">
-        <v>0.002995310925260277</v>
+        <v>0.0025528378857315</v>
       </c>
       <c r="T10">
-        <v>0.002995310925260277</v>
+        <v>0.0025528378857315</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J11">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>1516.490007611622</v>
+        <v>1349.686015232085</v>
       </c>
       <c r="R11">
-        <v>13648.4100685046</v>
+        <v>12147.17413708876</v>
       </c>
       <c r="S11">
-        <v>0.01672951497285021</v>
+        <v>0.01276620751291736</v>
       </c>
       <c r="T11">
-        <v>0.01672951497285021</v>
+        <v>0.01276620751291736</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H12">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>1795.257973598383</v>
+        <v>3848.062321207621</v>
       </c>
       <c r="R12">
-        <v>16157.32176238545</v>
+        <v>34632.56089086859</v>
       </c>
       <c r="S12">
-        <v>0.01980480913075336</v>
+        <v>0.03639747434645209</v>
       </c>
       <c r="T12">
-        <v>0.01980480913075336</v>
+        <v>0.03639747434645209</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H13">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>8071.062028675763</v>
+        <v>14136.95959319496</v>
       </c>
       <c r="R13">
-        <v>72639.55825808186</v>
+        <v>127232.6363387546</v>
       </c>
       <c r="S13">
-        <v>0.08903781256573522</v>
+        <v>0.1337165516510305</v>
       </c>
       <c r="T13">
-        <v>0.08903781256573522</v>
+        <v>0.1337165516510305</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H14">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>8911.697774170085</v>
+        <v>13569.50721265624</v>
       </c>
       <c r="R14">
-        <v>80205.27996753076</v>
+        <v>122125.5649139062</v>
       </c>
       <c r="S14">
-        <v>0.09831148283086896</v>
+        <v>0.128349218240222</v>
       </c>
       <c r="T14">
-        <v>0.09831148283086899</v>
+        <v>0.128349218240222</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H15">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>1421.380216778568</v>
+        <v>2474.751347425096</v>
       </c>
       <c r="R15">
-        <v>12792.42195100711</v>
+        <v>22272.76212682587</v>
       </c>
       <c r="S15">
-        <v>0.01568028902225383</v>
+        <v>0.02340780662135558</v>
       </c>
       <c r="T15">
-        <v>0.01568028902225383</v>
+        <v>0.02340780662135558</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H16">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>7938.742324937057</v>
+        <v>12375.71309196071</v>
       </c>
       <c r="R16">
-        <v>71448.6809244335</v>
+        <v>111381.4178276464</v>
       </c>
       <c r="S16">
-        <v>0.08757809673919564</v>
+        <v>0.1170575375822733</v>
       </c>
       <c r="T16">
-        <v>0.08757809673919566</v>
+        <v>0.1170575375822733</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H17">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>199.1644384746363</v>
+        <v>284.073107392317</v>
       </c>
       <c r="R17">
-        <v>1792.479946271727</v>
+        <v>2556.657966530853</v>
       </c>
       <c r="S17">
-        <v>0.002197129185683398</v>
+        <v>0.002686948073019767</v>
       </c>
       <c r="T17">
-        <v>0.002197129185683398</v>
+        <v>0.002686948073019767</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H18">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>895.396962706806</v>
+        <v>1043.623960710235</v>
       </c>
       <c r="R18">
-        <v>8058.572664361254</v>
+        <v>9392.615646392114</v>
       </c>
       <c r="S18">
-        <v>0.009877781468431823</v>
+        <v>0.009871273687005343</v>
       </c>
       <c r="T18">
-        <v>0.009877781468431823</v>
+        <v>0.009871273687005343</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H19">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>988.6563987740922</v>
+        <v>1001.733277145055</v>
       </c>
       <c r="R19">
-        <v>8897.907588966829</v>
+        <v>9015.599494305494</v>
       </c>
       <c r="S19">
-        <v>0.01090659479672037</v>
+        <v>0.009475044376472638</v>
       </c>
       <c r="T19">
-        <v>0.01090659479672037</v>
+        <v>0.009475044376472638</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H20">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>157.6867485881392</v>
+        <v>182.692026948708</v>
       </c>
       <c r="R20">
-        <v>1419.180737293253</v>
+        <v>1644.228242538372</v>
       </c>
       <c r="S20">
-        <v>0.001739558327641119</v>
+        <v>0.001728019925124326</v>
       </c>
       <c r="T20">
-        <v>0.001739558327641119</v>
+        <v>0.001728019925124326</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H21">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>880.7175239398931</v>
+        <v>913.6045575077301</v>
       </c>
       <c r="R21">
-        <v>7926.457715459039</v>
+        <v>8222.44101756957</v>
       </c>
       <c r="S21">
-        <v>0.009715841798924285</v>
+        <v>0.008641465669987823</v>
       </c>
       <c r="T21">
-        <v>0.009715841798924287</v>
+        <v>0.008641465669987825</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H22">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N22">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q22">
-        <v>2550.015640801963</v>
+        <v>3138.457328612187</v>
       </c>
       <c r="R22">
-        <v>22950.14076721767</v>
+        <v>28246.11595750968</v>
       </c>
       <c r="S22">
-        <v>0.02813109524604541</v>
+        <v>0.02968556914373146</v>
       </c>
       <c r="T22">
-        <v>0.02813109524604541</v>
+        <v>0.02968556914373146</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H23">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
         <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q23">
-        <v>11464.27684136846</v>
+        <v>11530.02231669501</v>
       </c>
       <c r="R23">
-        <v>103178.4915723162</v>
+        <v>103770.2008502551</v>
       </c>
       <c r="S23">
-        <v>0.1264708571160544</v>
+        <v>0.1090584446028996</v>
       </c>
       <c r="T23">
-        <v>0.1264708571160544</v>
+        <v>0.1090584446028996</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H24">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N24">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O24">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P24">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q24">
-        <v>12658.33047084829</v>
+        <v>11067.21144366807</v>
       </c>
       <c r="R24">
-        <v>113924.9742376346</v>
+        <v>99604.90299301267</v>
       </c>
       <c r="S24">
-        <v>0.1396433396068752</v>
+        <v>0.104680878578197</v>
       </c>
       <c r="T24">
-        <v>0.1396433396068752</v>
+        <v>0.104680878578197</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H25">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N25">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q25">
-        <v>2018.953174204188</v>
+        <v>2018.392857104696</v>
       </c>
       <c r="R25">
-        <v>18170.5785678377</v>
+        <v>18165.53571394226</v>
       </c>
       <c r="S25">
-        <v>0.02227255516871339</v>
+        <v>0.01909127142579002</v>
       </c>
       <c r="T25">
-        <v>0.02227255516871339</v>
+        <v>0.01909127142579002</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H26">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N26">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O26">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P26">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q26">
-        <v>11276.32763346512</v>
+        <v>10093.55987718948</v>
       </c>
       <c r="R26">
-        <v>101486.9487011861</v>
+        <v>90842.03889470534</v>
       </c>
       <c r="S26">
-        <v>0.1243974513751841</v>
+        <v>0.09547144927192575</v>
       </c>
       <c r="T26">
-        <v>0.1243974513751841</v>
+        <v>0.09547144927192576</v>
       </c>
     </row>
   </sheetData>
